--- a/output/graph_data.xlsx
+++ b/output/graph_data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clair\CCAF\Week45 0830-0903\E-waste coding\EWaste\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6B2AF7-C953-4BEB-A8D7-16DF5608C4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -58,12 +64,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -71,8 +77,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -118,15 +131,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -168,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,9 +221,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,6 +273,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,14 +466,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,12 +489,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>16825.5506623954</v>
+        <v>16825.550662395399</v>
       </c>
       <c r="C2">
         <v>0.01</v>
@@ -444,7 +503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -458,12 +517,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>29759.28501474115</v>
+        <v>29759.285014741148</v>
       </c>
       <c r="C4">
         <v>0.02</v>
@@ -472,7 +531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -486,7 +545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -500,12 +559,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>21810.95189372737</v>
+        <v>21810.951893727371</v>
       </c>
       <c r="C7">
         <v>0.03</v>
@@ -514,7 +573,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -528,12 +587,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6443.026808225943</v>
+        <v>6443.0268082259427</v>
       </c>
       <c r="C9">
         <v>0.04</v>
@@ -542,12 +601,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10">
-        <v>22930.27958880389</v>
+        <v>22930.279588803889</v>
       </c>
       <c r="C10">
         <v>0.04</v>
@@ -556,12 +615,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>1598.835463410645</v>
+        <v>1598.8354634106449</v>
       </c>
       <c r="C11">
         <v>0.04</v>
@@ -570,12 +629,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12">
-        <v>28147.13887149572</v>
+        <v>28147.138871495721</v>
       </c>
       <c r="C12">
         <v>0.04</v>
@@ -584,12 +643,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13">
-        <v>12852.2429898336</v>
+        <v>12852.242989833599</v>
       </c>
       <c r="C13">
         <v>0.05</v>
@@ -598,7 +657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -612,12 +671,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15">
-        <v>632.0409584941337</v>
+        <v>632.04095849413375</v>
       </c>
       <c r="C15">
         <v>0.05</v>
@@ -626,12 +685,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16">
-        <v>32927.33692484857</v>
+        <v>32927.336924848569</v>
       </c>
       <c r="C16">
         <v>0.05</v>
@@ -640,12 +699,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17">
-        <v>12852.2429898336</v>
+        <v>12852.242989833599</v>
       </c>
       <c r="C17">
         <v>0.06</v>
@@ -654,12 +713,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18">
-        <v>19527.0585039186</v>
+        <v>19527.058503918601</v>
       </c>
       <c r="C18">
         <v>0.06</v>
@@ -668,12 +727,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19">
-        <v>8015.96508744412</v>
+        <v>8015.9650874441204</v>
       </c>
       <c r="C19">
         <v>0.06</v>
@@ -682,7 +741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -696,21 +755,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21">
-        <v>14601.69384883216</v>
+        <v>14601.693848832159</v>
       </c>
       <c r="C21">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -718,41 +777,41 @@
         <v>31798.11653361121</v>
       </c>
       <c r="C22">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
       <c r="B23">
-        <v>5597.275715338003</v>
+        <v>5597.2757153380026</v>
       </c>
       <c r="C23">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24">
-        <v>59107.32551320045</v>
+        <v>59107.325513200449</v>
       </c>
       <c r="C24">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -766,12 +825,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26">
-        <v>934.3160425301841</v>
+        <v>934.31604253018406</v>
       </c>
       <c r="C26">
         <v>0.08</v>
@@ -780,12 +839,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27">
-        <v>39584.02753994367</v>
+        <v>39584.027539943672</v>
       </c>
       <c r="C27">
         <v>0.08</v>
@@ -794,12 +853,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
       <c r="B28">
-        <v>5254.509911669833</v>
+        <v>5254.5099116698329</v>
       </c>
       <c r="C28">
         <v>0.08</v>
@@ -808,12 +867,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29">
-        <v>131744.5330426448</v>
+        <v>131744.53304264479</v>
       </c>
       <c r="C29">
         <v>0.08</v>
@@ -822,7 +881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -836,12 +895,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
       <c r="B31">
-        <v>5589.989744291273</v>
+        <v>5589.9897442912734</v>
       </c>
       <c r="C31">
         <v>0.09</v>
@@ -850,12 +909,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32">
-        <v>41525.43274603765</v>
+        <v>41525.432746037652</v>
       </c>
       <c r="C32">
         <v>0.09</v>
@@ -864,12 +923,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
       <c r="B33">
-        <v>10796.5241177329</v>
+        <v>10796.524117732901</v>
       </c>
       <c r="C33">
         <v>0.09</v>
@@ -878,7 +937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -892,7 +951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -906,12 +965,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
       <c r="B36">
-        <v>3658.547089230126</v>
+        <v>3658.5470892301259</v>
       </c>
       <c r="C36">
         <v>0.1</v>
@@ -920,7 +979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -934,12 +993,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38">
-        <v>67837.90116063422</v>
+        <v>67837.901160634225</v>
       </c>
       <c r="C38">
         <v>0.1</v>
@@ -948,12 +1007,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
       <c r="B39">
-        <v>23531.53840003228</v>
+        <v>23531.538400032281</v>
       </c>
       <c r="C39">
         <v>0.1</v>
@@ -962,7 +1021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -976,7 +1035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -990,12 +1049,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
       <c r="B42">
-        <v>3658.547089230126</v>
+        <v>3658.5470892301259</v>
       </c>
       <c r="C42">
         <v>0.11</v>
@@ -1004,7 +1063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1018,12 +1077,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4</v>
       </c>
       <c r="B44">
-        <v>93369.40099351904</v>
+        <v>93369.400993519041</v>
       </c>
       <c r="C44">
         <v>0.11</v>
@@ -1032,12 +1091,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
       <c r="B45">
-        <v>55832.47231360569</v>
+        <v>55832.472313605693</v>
       </c>
       <c r="C45">
         <v>0.11</v>
@@ -1046,7 +1105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1060,7 +1119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -1074,12 +1133,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
       <c r="B48">
-        <v>3658.547089230126</v>
+        <v>3658.5470892301259</v>
       </c>
       <c r="C48">
         <v>0.12</v>
@@ -1088,12 +1147,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
       <c r="B49">
-        <v>12566.3758077019</v>
+        <v>12566.375807701899</v>
       </c>
       <c r="C49">
         <v>0.12</v>
@@ -1102,12 +1161,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
       <c r="B50">
-        <v>182234.2428453921</v>
+        <v>182234.24284539209</v>
       </c>
       <c r="C50">
         <v>0.12</v>
@@ -1116,12 +1175,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
       <c r="B51">
-        <v>135113.6376959824</v>
+        <v>135113.63769598241</v>
       </c>
       <c r="C51">
         <v>0.12</v>
@@ -1130,7 +1189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1144,7 +1203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1158,12 +1217,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
       <c r="B54">
-        <v>3658.547089230126</v>
+        <v>3658.5470892301259</v>
       </c>
       <c r="C54">
         <v>0.13</v>
@@ -1172,7 +1231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -1186,12 +1245,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>4</v>
       </c>
       <c r="B56">
-        <v>339350.0511112633</v>
+        <v>339350.05111126328</v>
       </c>
       <c r="C56">
         <v>0.13</v>
@@ -1200,12 +1259,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>8</v>
       </c>
       <c r="B57">
-        <v>312293.6655210066</v>
+        <v>312293.66552100662</v>
       </c>
       <c r="C57">
         <v>0.13</v>
@@ -1214,7 +1273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1228,7 +1287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -1242,35 +1301,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>10</v>
       </c>
       <c r="B60">
-        <v>3658.547089230126</v>
+        <v>3658.5470892301259</v>
       </c>
       <c r="C60">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
       <c r="B61">
-        <v>11317.42516540431</v>
+        <v>11317.425165404309</v>
       </c>
       <c r="C61">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -1278,13 +1337,13 @@
         <v>11</v>
       </c>
       <c r="C62">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -1292,13 +1351,13 @@
         <v>11</v>
       </c>
       <c r="C63">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1306,13 +1365,13 @@
         <v>11</v>
       </c>
       <c r="C64">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -1320,18 +1379,18 @@
         <v>11</v>
       </c>
       <c r="C65">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
       <c r="B66">
-        <v>7981.147103894679</v>
+        <v>7981.1471038946793</v>
       </c>
       <c r="C66">
         <v>0.15</v>
@@ -1340,7 +1399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -1354,7 +1413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -1368,7 +1427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -1382,7 +1441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -1396,7 +1455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -1410,12 +1469,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>10</v>
       </c>
       <c r="B72">
-        <v>7981.147103894679</v>
+        <v>7981.1471038946793</v>
       </c>
       <c r="C72">
         <v>0.16</v>
@@ -1424,7 +1483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -1438,7 +1497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -1452,7 +1511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -1466,7 +1525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -1480,7 +1539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -1494,7 +1553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -1508,12 +1567,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>10</v>
       </c>
       <c r="B79">
-        <v>7543.979039894572</v>
+        <v>7543.9790398945725</v>
       </c>
       <c r="C79">
         <v>0.17</v>
@@ -1522,7 +1581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -1536,7 +1595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -1550,7 +1609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -1564,7 +1623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -1578,7 +1637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -1592,7 +1651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -1606,12 +1665,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>10</v>
       </c>
       <c r="B86">
-        <v>7543.979039894572</v>
+        <v>7543.9790398945725</v>
       </c>
       <c r="C86">
         <v>0.18</v>
@@ -1620,7 +1679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -1634,7 +1693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -1648,7 +1707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -1662,7 +1721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -1676,7 +1735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -1690,7 +1749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -1704,7 +1763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -1718,7 +1777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -1732,7 +1791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -1746,7 +1805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -1760,7 +1819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -1774,7 +1833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -1788,7 +1847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -1803,6 +1862,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>